--- a/abgearbeitete ToDos/10-Anhang-Factories.xlsx
+++ b/abgearbeitete ToDos/10-Anhang-Factories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="7932"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,10 +342,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -657,20 +656,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -684,385 +683,385 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
         <v>85</v>
       </c>
     </row>
